--- a/casos_de_prueba.xlsx
+++ b/casos_de_prueba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -105,10 +105,7 @@
     <t>editar perfil 2 veces</t>
   </si>
   <si>
-    <t xml:space="preserve">genera un error en el template de page not found </t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>genera un error en el template de page not found - pequeño delay en la carga de la web 3 segundos deslogea y todo ok</t>
   </si>
 </sst>
 </file>
@@ -526,7 +523,7 @@
   <dimension ref="A2:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +670,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">

--- a/casos_de_prueba.xlsx
+++ b/casos_de_prueba.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Escritorio\probando cosas del proyecto\entregaFinal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EB02EB-C20C-4DF7-B5EC-E83463EBC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -106,12 +112,33 @@
   </si>
   <si>
     <t>genera un error en el template de page not found - pequeño delay en la carga de la web 3 segundos deslogea y todo ok</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>consultas</t>
+  </si>
+  <si>
+    <t>el formulario de consulta funciona correctamente</t>
+  </si>
+  <si>
+    <t>visualizacion de consultas</t>
+  </si>
+  <si>
+    <t>las consultas solo se ven en el perfil de un superuser donde aparecen los datos que envio la persona en el formulario</t>
+  </si>
+  <si>
+    <t>Allen/Rio Negro</t>
+  </si>
+  <si>
+    <t>los comentarios de cargan correctamente y se visualizan solo en el curso donde se realizo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -219,24 +246,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0457EAE5-EDAE-487D-B8D4-EAFA2A155927}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -346,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -519,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +862,9 @@
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -855,31 +890,61 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="11">
+        <v>45217</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="11">
+        <v>45218</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="11">
+        <v>45219</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -900,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/casos_de_prueba.xlsx
+++ b/casos_de_prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Escritorio\probando cosas del proyecto\entregaFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\entregaFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EB02EB-C20C-4DF7-B5EC-E83463EBC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B952D-CE6E-43D3-A5C4-3805B1A6A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>los comentarios de cargan correctamente y se visualizan solo en el curso donde se realizo</t>
+  </si>
+  <si>
+    <t>Rio Cuarto/Córdoba</t>
+  </si>
+  <si>
+    <t>El curso se puede editar correctamente, aparecen todos los campos correspondientes del formulario</t>
+  </si>
+  <si>
+    <t>SuperUser</t>
+  </si>
+  <si>
+    <t>Boton editar y borrar solo se ven en el perfil de superuser</t>
+  </si>
+  <si>
+    <t>Ver curso</t>
+  </si>
+  <si>
+    <t>Cada boton "Ver" de cada curso corresponde con la descripcion de cada curso</t>
+  </si>
+  <si>
+    <t>Editar curso</t>
   </si>
 </sst>
 </file>
@@ -218,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -247,6 +268,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,22 +585,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,7 +614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -598,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -612,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -626,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -649,7 +679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -668,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -687,7 +717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -706,7 +736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -734,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -748,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -758,9 +788,11 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -783,34 +815,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="12">
+        <v>45214</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="13">
+        <v>45216</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="14">
+        <v>45217</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -838,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -852,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -866,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -889,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -900,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="11">
-        <v>45217</v>
+        <v>45214</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -908,7 +964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -919,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="D30" s="11">
-        <v>45218</v>
+        <v>45215</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -927,7 +983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -938,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="11">
-        <v>45219</v>
+        <v>45217</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -958,7 +1014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -970,7 +1026,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
